--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H2">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I2">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J2">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>6.402167659836</v>
+        <v>1.902788210570556</v>
       </c>
       <c r="R2">
-        <v>57.619508938524</v>
+        <v>17.125093895135</v>
       </c>
       <c r="S2">
-        <v>0.2078067346804278</v>
+        <v>0.0936690144059218</v>
       </c>
       <c r="T2">
-        <v>0.2307166798269999</v>
+        <v>0.1051985853704826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H3">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I3">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J3">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>5.213725529740001</v>
+        <v>2.450298795952778</v>
       </c>
       <c r="R3">
-        <v>46.92352976766001</v>
+        <v>22.052689163575</v>
       </c>
       <c r="S3">
-        <v>0.1692313190503054</v>
+        <v>0.1206214501129857</v>
       </c>
       <c r="T3">
-        <v>0.1878884633555025</v>
+        <v>0.1354685537976592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H4">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I4">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J4">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.017587737648</v>
+        <v>0.00826572326</v>
       </c>
       <c r="R4">
-        <v>0.158289638832</v>
+        <v>0.07439150933999999</v>
       </c>
       <c r="S4">
-        <v>0.0005708770099814181</v>
+        <v>0.0004068987535318734</v>
       </c>
       <c r="T4">
-        <v>0.0006338141472413165</v>
+        <v>0.0004569832781101578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H5">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I5">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J5">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,42 +744,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>2.610818790684</v>
+        <v>0.3004540564583333</v>
       </c>
       <c r="R5">
-        <v>15.664912744104</v>
+        <v>1.80272433875</v>
       </c>
       <c r="S5">
-        <v>0.08474406740985654</v>
+        <v>0.01479052434021254</v>
       </c>
       <c r="T5">
-        <v>0.06272453071329342</v>
+        <v>0.01107404440587119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.828516</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H6">
-        <v>2.485548</v>
+        <v>2.231519</v>
       </c>
       <c r="I6">
-        <v>0.4625620436231038</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J6">
-        <v>0.4821955800271095</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007773333333333333</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N6">
-        <v>0.02332</v>
+        <v>14.660201</v>
       </c>
       <c r="O6">
-        <v>0.0004519295852621654</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P6">
-        <v>0.0004813233336965963</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q6">
-        <v>0.00644033104</v>
+        <v>3.634946341702112</v>
       </c>
       <c r="R6">
-        <v>0.05796297936</v>
+        <v>32.714517075319</v>
       </c>
       <c r="S6">
-        <v>0.000209045472532609</v>
+        <v>0.1789383807163455</v>
       </c>
       <c r="T6">
-        <v>0.0002320919840724122</v>
+        <v>0.2009636232347751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J7">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.727270999999999</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N7">
-        <v>23.181813</v>
+        <v>18.878545</v>
       </c>
       <c r="O7">
-        <v>0.4492515923977304</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P7">
-        <v>0.4784711627054499</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q7">
-        <v>5.747850684883</v>
+        <v>4.680870206650555</v>
       </c>
       <c r="R7">
-        <v>51.730656163947</v>
+        <v>42.127831859855</v>
       </c>
       <c r="S7">
-        <v>0.186568385228261</v>
+        <v>0.2304263272093377</v>
       </c>
       <c r="T7">
-        <v>0.2071368787289029</v>
+        <v>0.2587891396987494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J8">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.292848333333334</v>
+        <v>0.021228</v>
       </c>
       <c r="N8">
-        <v>18.878545</v>
+        <v>0.063684</v>
       </c>
       <c r="O8">
-        <v>0.3658564756519352</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P8">
-        <v>0.3896519817642028</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q8">
-        <v>4.680870206650557</v>
+        <v>0.015790228444</v>
       </c>
       <c r="R8">
-        <v>42.12783185985501</v>
+        <v>0.142112055996</v>
       </c>
       <c r="S8">
-        <v>0.1519354701079273</v>
+        <v>0.0007773093859722486</v>
       </c>
       <c r="T8">
-        <v>0.1686858092696691</v>
+        <v>0.0008729871699633188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,164 +980,164 @@
         <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J9">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.021228</v>
+        <v>0.771625</v>
       </c>
       <c r="N9">
-        <v>0.063684</v>
+        <v>1.54325</v>
       </c>
       <c r="O9">
-        <v>0.001234163109255392</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P9">
-        <v>0.001314433755709007</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q9">
-        <v>0.015790228444</v>
+        <v>0.5739652827916667</v>
       </c>
       <c r="R9">
-        <v>0.142112055996</v>
+        <v>3.44379169675</v>
       </c>
       <c r="S9">
-        <v>0.0005125320027763391</v>
+        <v>0.0282547274802542</v>
       </c>
       <c r="T9">
-        <v>0.0005690368128226835</v>
+        <v>0.02115503815787155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.264829</v>
+      </c>
+      <c r="I10">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J10">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7438396666666667</v>
-      </c>
-      <c r="H10">
-        <v>2.231519</v>
-      </c>
-      <c r="I10">
-        <v>0.4152870872032183</v>
-      </c>
-      <c r="J10">
-        <v>0.4329140288365043</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.151199</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N10">
-        <v>6.302398</v>
+        <v>14.660201</v>
       </c>
       <c r="O10">
-        <v>0.183205839255817</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P10">
-        <v>0.1300810984409417</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q10">
-        <v>2.343986813760333</v>
+        <v>0.4313829300698889</v>
       </c>
       <c r="R10">
-        <v>14.063920882562</v>
+        <v>3.882446370629</v>
       </c>
       <c r="S10">
-        <v>0.07608301934316926</v>
+        <v>0.02123579159609622</v>
       </c>
       <c r="T10">
-        <v>0.05631393240154599</v>
+        <v>0.02384967162620719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.264829</v>
+      </c>
+      <c r="I11">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J11">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.7438396666666667</v>
-      </c>
-      <c r="H11">
-        <v>2.231519</v>
-      </c>
-      <c r="I11">
-        <v>0.4152870872032183</v>
-      </c>
-      <c r="J11">
-        <v>0.4329140288365043</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.007773333333333333</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N11">
-        <v>0.02332</v>
+        <v>18.878545</v>
       </c>
       <c r="O11">
-        <v>0.0004519295852621654</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P11">
-        <v>0.0004813233336965963</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q11">
-        <v>0.005782113675555556</v>
+        <v>0.5555095770894444</v>
       </c>
       <c r="R11">
-        <v>0.05203902308</v>
+        <v>4.999586193804999</v>
       </c>
       <c r="S11">
-        <v>0.0001876805210844832</v>
+        <v>0.02734620400208185</v>
       </c>
       <c r="T11">
-        <v>0.0002083716235636106</v>
+        <v>0.03071220503938354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H12">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I12">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J12">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.727270999999999</v>
+        <v>0.021228</v>
       </c>
       <c r="N12">
-        <v>23.181813</v>
+        <v>0.063684</v>
       </c>
       <c r="O12">
-        <v>0.4492515923977304</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P12">
-        <v>0.4784711627054499</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q12">
-        <v>1.69064962209</v>
+        <v>0.001873930004</v>
       </c>
       <c r="R12">
-        <v>10.14389773254</v>
+        <v>0.016865370036</v>
       </c>
       <c r="S12">
-        <v>0.05487647248904162</v>
+        <v>9.224840450726371E-05</v>
       </c>
       <c r="T12">
-        <v>0.04061760414954715</v>
+        <v>0.0001036031148442903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,75 +1207,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.264829</v>
+      </c>
+      <c r="I13">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J13">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.21879</v>
-      </c>
-      <c r="H13">
-        <v>0.43758</v>
-      </c>
-      <c r="I13">
-        <v>0.1221508691736779</v>
-      </c>
-      <c r="J13">
-        <v>0.08489039113638626</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.292848333333334</v>
+        <v>0.771625</v>
       </c>
       <c r="N13">
-        <v>18.878545</v>
+        <v>1.54325</v>
       </c>
       <c r="O13">
-        <v>0.3658564756519352</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P13">
-        <v>0.3896519817642028</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q13">
-        <v>1.37681228685</v>
+        <v>0.06811622570833334</v>
       </c>
       <c r="R13">
-        <v>8.260873721100001</v>
+        <v>0.40869735425</v>
       </c>
       <c r="S13">
-        <v>0.04468968649370239</v>
+        <v>0.003353173880154388</v>
       </c>
       <c r="T13">
-        <v>0.03307770913903123</v>
+        <v>0.002510607169515905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.21879</v>
+        <v>0.4583675</v>
       </c>
       <c r="H14">
-        <v>0.43758</v>
+        <v>0.9167350000000001</v>
       </c>
       <c r="I14">
-        <v>0.1221508691736779</v>
+        <v>0.2701480291026951</v>
       </c>
       <c r="J14">
-        <v>0.08489039113638626</v>
+        <v>0.1979213759447163</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.021228</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N14">
-        <v>0.063684</v>
+        <v>14.660201</v>
       </c>
       <c r="O14">
-        <v>0.001234163109255392</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P14">
-        <v>0.001314433755709007</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q14">
-        <v>0.00464447412</v>
+        <v>2.239919893955834</v>
       </c>
       <c r="R14">
-        <v>0.02786684472</v>
+        <v>13.439519363735</v>
       </c>
       <c r="S14">
-        <v>0.0001507540964976349</v>
+        <v>0.1102650771375904</v>
       </c>
       <c r="T14">
-        <v>0.0001115827956450068</v>
+        <v>0.08255828749212152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.21879</v>
+        <v>0.4583675</v>
       </c>
       <c r="H15">
-        <v>0.43758</v>
+        <v>0.9167350000000001</v>
       </c>
       <c r="I15">
-        <v>0.1221508691736779</v>
+        <v>0.2701480291026951</v>
       </c>
       <c r="J15">
-        <v>0.08489039113638626</v>
+        <v>0.1979213759447163</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.151199</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N15">
-        <v>6.302398</v>
+        <v>18.878545</v>
       </c>
       <c r="O15">
-        <v>0.183205839255817</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P15">
-        <v>0.1300810984409417</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q15">
-        <v>0.68945082921</v>
+        <v>2.884437158429167</v>
       </c>
       <c r="R15">
-        <v>2.75780331684</v>
+        <v>17.306622950575</v>
       </c>
       <c r="S15">
-        <v>0.02237875250279115</v>
+        <v>0.1419928840450735</v>
       </c>
       <c r="T15">
-        <v>0.01104263532610231</v>
+        <v>0.106313709173766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.21879</v>
+        <v>0.4583675</v>
       </c>
       <c r="H16">
-        <v>0.43758</v>
+        <v>0.9167350000000001</v>
       </c>
       <c r="I16">
-        <v>0.1221508691736779</v>
+        <v>0.2701480291026951</v>
       </c>
       <c r="J16">
-        <v>0.08489039113638626</v>
+        <v>0.1979213759447163</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.007773333333333333</v>
+        <v>0.021228</v>
       </c>
       <c r="N16">
-        <v>0.02332</v>
+        <v>0.063684</v>
       </c>
       <c r="O16">
-        <v>0.0004519295852621654</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P16">
-        <v>0.0004813233336965963</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q16">
-        <v>0.0017007276</v>
+        <v>0.009730225290000002</v>
       </c>
       <c r="R16">
-        <v>0.0102043656</v>
+        <v>0.05838135174000001</v>
       </c>
       <c r="S16">
-        <v>5.520359164507327E-05</v>
+        <v>0.0004789921483634708</v>
       </c>
       <c r="T16">
-        <v>4.085972606057342E-05</v>
+        <v>0.0003586336899915811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4583675</v>
+      </c>
+      <c r="H17">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J17">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.771625</v>
+      </c>
+      <c r="N17">
+        <v>1.54325</v>
+      </c>
+      <c r="O17">
+        <v>0.06445013065429045</v>
+      </c>
+      <c r="P17">
+        <v>0.04391009079921059</v>
+      </c>
+      <c r="Q17">
+        <v>0.3536878221875001</v>
+      </c>
+      <c r="R17">
+        <v>1.41475128875</v>
+      </c>
+      <c r="S17">
+        <v>0.01741107577166776</v>
+      </c>
+      <c r="T17">
+        <v>0.008690745588837187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.050596</v>
+      </c>
+      <c r="I18">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J18">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.886733666666667</v>
+      </c>
+      <c r="N18">
+        <v>14.660201</v>
+      </c>
+      <c r="O18">
+        <v>0.4081653954827624</v>
+      </c>
+      <c r="P18">
+        <v>0.4171266852711343</v>
+      </c>
+      <c r="Q18">
+        <v>0.08241639219955556</v>
+      </c>
+      <c r="R18">
+        <v>0.7417475297960001</v>
+      </c>
+      <c r="S18">
+        <v>0.004057131626808562</v>
+      </c>
+      <c r="T18">
+        <v>0.004556517547547961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.050596</v>
+      </c>
+      <c r="I19">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J19">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N19">
+        <v>18.878545</v>
+      </c>
+      <c r="O19">
+        <v>0.5256114009667484</v>
+      </c>
+      <c r="P19">
+        <v>0.5371512231375235</v>
+      </c>
+      <c r="Q19">
+        <v>0.1061309847577778</v>
+      </c>
+      <c r="R19">
+        <v>0.95517886282</v>
+      </c>
+      <c r="S19">
+        <v>0.005224535597269685</v>
+      </c>
+      <c r="T19">
+        <v>0.005867615427965402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.050596</v>
+      </c>
+      <c r="I20">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J20">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.021228</v>
+      </c>
+      <c r="N20">
+        <v>0.063684</v>
+      </c>
+      <c r="O20">
+        <v>0.001773072896198643</v>
+      </c>
+      <c r="P20">
+        <v>0.001812000792131494</v>
+      </c>
+      <c r="Q20">
+        <v>0.000358017296</v>
+      </c>
+      <c r="R20">
+        <v>0.003222155664</v>
+      </c>
+      <c r="S20">
+        <v>1.762420382378635E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.979353922214602E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.050596</v>
+      </c>
+      <c r="I21">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J21">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.771625</v>
+      </c>
+      <c r="N21">
+        <v>1.54325</v>
+      </c>
+      <c r="O21">
+        <v>0.06445013065429045</v>
+      </c>
+      <c r="P21">
+        <v>0.04391009079921059</v>
+      </c>
+      <c r="Q21">
+        <v>0.01301371283333333</v>
+      </c>
+      <c r="R21">
+        <v>0.07808227700000001</v>
+      </c>
+      <c r="S21">
+        <v>0.000640629182001561</v>
+      </c>
+      <c r="T21">
+        <v>0.0004796554771147675</v>
       </c>
     </row>
   </sheetData>
